--- a/example_data/VegeLib.xlsx
+++ b/example_data/VegeLib.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xHM\example_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20A6B73-BC90-412D-BD5B-BD989512F4D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978C0506-F646-43F1-9DDF-1C1B842F143E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7350" activeTab="1" xr2:uid="{67301EE8-8712-4249-B216-439A239299BA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="para description" sheetId="1" r:id="rId1"/>
+    <sheet name="VegeLib" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="111">
   <si>
     <t>Variable Name</t>
   </si>
@@ -479,6 +479,15 @@
   </si>
   <si>
     <t>Crop land (corn)</t>
+  </si>
+  <si>
+    <t>CAN_TOP</t>
+  </si>
+  <si>
+    <t>CAN_BOTT</t>
+  </si>
+  <si>
+    <t>SAI</t>
   </si>
 </sst>
 </file>
@@ -996,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DBDB6FC-2329-4307-8267-868252A67AFF}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1244,247 +1253,255 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6AD5702-3BF4-4060-91A5-E265261B34C6}">
-  <dimension ref="A1:BG12"/>
+  <dimension ref="A1:BI12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
+      <selection activeCell="BI6" sqref="BB6:BI6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="53" max="53" width="5.7109375" customWidth="1"/>
+    <col min="55" max="55" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>40</v>
       </c>
       <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U1" t="s">
+        <v>60</v>
+      </c>
+      <c r="V1" t="s">
+        <v>61</v>
+      </c>
+      <c r="W1" t="s">
+        <v>62</v>
+      </c>
+      <c r="X1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>108</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>109</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>28</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BI1" t="s">
         <v>96</v>
       </c>
-      <c r="C1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M1" t="s">
-        <v>51</v>
-      </c>
-      <c r="N1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O1" t="s">
-        <v>53</v>
-      </c>
-      <c r="P1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R1" t="s">
-        <v>56</v>
-      </c>
-      <c r="S1" t="s">
-        <v>57</v>
-      </c>
-      <c r="T1" t="s">
-        <v>58</v>
-      </c>
-      <c r="U1" t="s">
-        <v>59</v>
-      </c>
-      <c r="V1" t="s">
+    </row>
+    <row r="2" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>60</v>
       </c>
-      <c r="W1" t="s">
-        <v>61</v>
-      </c>
-      <c r="X1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>90</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>91</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>92</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>28</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>94</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
       <c r="D2">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="E2">
-        <v>150</v>
+        <v>3.4</v>
       </c>
       <c r="F2">
         <v>3.4</v>
       </c>
       <c r="G2">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H2">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I2">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="J2">
-        <v>4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="K2">
         <v>4.4000000000000004</v>
       </c>
       <c r="L2">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="M2">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="N2">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="O2">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="P2">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q2">
-        <v>3.4</v>
+        <v>0.12</v>
       </c>
       <c r="R2">
         <v>0.12</v>
@@ -1520,7 +1537,7 @@
         <v>0.12</v>
       </c>
       <c r="AC2">
-        <v>0.12</v>
+        <v>1.476</v>
       </c>
       <c r="AD2">
         <v>1.476</v>
@@ -1556,7 +1573,7 @@
         <v>1.476</v>
       </c>
       <c r="AO2">
-        <v>1.476</v>
+        <v>8.0399999999999991</v>
       </c>
       <c r="AP2">
         <v>8.0399999999999991</v>
@@ -1592,78 +1609,84 @@
         <v>8.0399999999999991</v>
       </c>
       <c r="BA2">
-        <v>8.0399999999999991</v>
+        <v>2</v>
       </c>
       <c r="BB2">
+        <v>17</v>
+      </c>
+      <c r="BC2">
+        <v>6</v>
+      </c>
+      <c r="BD2">
         <v>50</v>
       </c>
-      <c r="BC2">
+      <c r="BE2">
         <v>30</v>
       </c>
-      <c r="BD2">
+      <c r="BF2">
         <v>0.5</v>
       </c>
-      <c r="BE2">
+      <c r="BG2">
         <v>0.5</v>
       </c>
-      <c r="BF2">
+      <c r="BH2">
         <v>0.2</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BI2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>98</v>
+      <c r="B3">
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="D3">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="E3">
-        <v>150</v>
+        <v>3.4</v>
       </c>
       <c r="F3">
         <v>3.4</v>
       </c>
       <c r="G3">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H3">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I3">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="J3">
-        <v>4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="K3">
         <v>4.4000000000000004</v>
       </c>
       <c r="L3">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="M3">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="N3">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="O3">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="P3">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q3">
-        <v>3.4</v>
+        <v>0.12</v>
       </c>
       <c r="R3">
         <v>0.12</v>
@@ -1699,7 +1722,7 @@
         <v>0.12</v>
       </c>
       <c r="AC3">
-        <v>0.12</v>
+        <v>1.476</v>
       </c>
       <c r="AD3">
         <v>1.476</v>
@@ -1735,7 +1758,7 @@
         <v>1.476</v>
       </c>
       <c r="AO3">
-        <v>1.476</v>
+        <v>8.0399999999999991</v>
       </c>
       <c r="AP3">
         <v>8.0399999999999991</v>
@@ -1771,615 +1794,639 @@
         <v>8.0399999999999991</v>
       </c>
       <c r="BA3">
-        <v>8.0399999999999991</v>
+        <v>2</v>
       </c>
       <c r="BB3">
+        <v>35</v>
+      </c>
+      <c r="BC3">
+        <v>1</v>
+      </c>
+      <c r="BD3">
         <v>50</v>
       </c>
-      <c r="BC3">
+      <c r="BE3">
         <v>30</v>
       </c>
-      <c r="BD3">
+      <c r="BF3">
         <v>0.5</v>
       </c>
-      <c r="BE3">
+      <c r="BG3">
         <v>0.5</v>
       </c>
-      <c r="BF3">
+      <c r="BH3">
         <v>0.2</v>
       </c>
-      <c r="BG3" t="s">
+      <c r="BI3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>99</v>
+      <c r="B4">
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="D4">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="E4">
-        <v>150</v>
+        <v>1.68</v>
       </c>
       <c r="F4">
+        <v>1.52</v>
+      </c>
+      <c r="G4">
         <v>1.68</v>
       </c>
-      <c r="G4">
-        <v>1.52</v>
-      </c>
       <c r="H4">
-        <v>1.68</v>
+        <v>2.9</v>
       </c>
       <c r="I4">
-        <v>2.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="J4">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="K4">
         <v>5</v>
       </c>
       <c r="L4">
-        <v>5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="M4">
-        <v>4.5999999999999996</v>
+        <v>3.44</v>
       </c>
       <c r="N4">
-        <v>3.44</v>
+        <v>3.04</v>
       </c>
       <c r="O4">
-        <v>3.04</v>
+        <v>2.16</v>
       </c>
       <c r="P4">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="Q4">
+        <v>0.18</v>
+      </c>
+      <c r="R4">
+        <v>0.18</v>
+      </c>
+      <c r="S4">
+        <v>0.18</v>
+      </c>
+      <c r="T4">
+        <v>0.18</v>
+      </c>
+      <c r="U4">
+        <v>0.18</v>
+      </c>
+      <c r="V4">
+        <v>0.18</v>
+      </c>
+      <c r="W4">
+        <v>0.18</v>
+      </c>
+      <c r="X4">
+        <v>0.18</v>
+      </c>
+      <c r="Y4">
+        <v>0.18</v>
+      </c>
+      <c r="Z4">
+        <v>0.18</v>
+      </c>
+      <c r="AA4">
+        <v>0.18</v>
+      </c>
+      <c r="AB4">
+        <v>0.18</v>
+      </c>
+      <c r="AC4">
+        <v>1.23</v>
+      </c>
+      <c r="AD4">
+        <v>1.23</v>
+      </c>
+      <c r="AE4">
+        <v>1.23</v>
+      </c>
+      <c r="AF4">
+        <v>1.23</v>
+      </c>
+      <c r="AG4">
+        <v>1.23</v>
+      </c>
+      <c r="AH4">
+        <v>1.23</v>
+      </c>
+      <c r="AI4">
+        <v>1.23</v>
+      </c>
+      <c r="AJ4">
+        <v>1.23</v>
+      </c>
+      <c r="AK4">
+        <v>1.23</v>
+      </c>
+      <c r="AL4">
+        <v>1.23</v>
+      </c>
+      <c r="AM4">
+        <v>1.23</v>
+      </c>
+      <c r="AN4">
+        <v>1.23</v>
+      </c>
+      <c r="AO4">
+        <v>6.7</v>
+      </c>
+      <c r="AP4">
+        <v>6.7</v>
+      </c>
+      <c r="AQ4">
+        <v>6.7</v>
+      </c>
+      <c r="AR4">
+        <v>6.7</v>
+      </c>
+      <c r="AS4">
+        <v>6.7</v>
+      </c>
+      <c r="AT4">
+        <v>6.7</v>
+      </c>
+      <c r="AU4">
+        <v>6.7</v>
+      </c>
+      <c r="AV4">
+        <v>6.7</v>
+      </c>
+      <c r="AW4">
+        <v>6.7</v>
+      </c>
+      <c r="AX4">
+        <v>6.7</v>
+      </c>
+      <c r="AY4">
+        <v>6.7</v>
+      </c>
+      <c r="AZ4">
+        <v>6.7</v>
+      </c>
+      <c r="BA4">
         <v>2</v>
       </c>
-      <c r="R4">
-        <v>0.18</v>
-      </c>
-      <c r="S4">
-        <v>0.18</v>
-      </c>
-      <c r="T4">
-        <v>0.18</v>
-      </c>
-      <c r="U4">
-        <v>0.18</v>
-      </c>
-      <c r="V4">
-        <v>0.18</v>
-      </c>
-      <c r="W4">
-        <v>0.18</v>
-      </c>
-      <c r="X4">
-        <v>0.18</v>
-      </c>
-      <c r="Y4">
-        <v>0.18</v>
-      </c>
-      <c r="Z4">
-        <v>0.18</v>
-      </c>
-      <c r="AA4">
-        <v>0.18</v>
-      </c>
-      <c r="AB4">
-        <v>0.18</v>
-      </c>
-      <c r="AC4">
-        <v>0.18</v>
-      </c>
-      <c r="AD4">
-        <v>1.23</v>
-      </c>
-      <c r="AE4">
-        <v>1.23</v>
-      </c>
-      <c r="AF4">
-        <v>1.23</v>
-      </c>
-      <c r="AG4">
-        <v>1.23</v>
-      </c>
-      <c r="AH4">
-        <v>1.23</v>
-      </c>
-      <c r="AI4">
-        <v>1.23</v>
-      </c>
-      <c r="AJ4">
-        <v>1.23</v>
-      </c>
-      <c r="AK4">
-        <v>1.23</v>
-      </c>
-      <c r="AL4">
-        <v>1.23</v>
-      </c>
-      <c r="AM4">
-        <v>1.23</v>
-      </c>
-      <c r="AN4">
-        <v>1.23</v>
-      </c>
-      <c r="AO4">
-        <v>1.23</v>
-      </c>
-      <c r="AP4">
-        <v>6.7</v>
-      </c>
-      <c r="AQ4">
-        <v>6.7</v>
-      </c>
-      <c r="AR4">
-        <v>6.7</v>
-      </c>
-      <c r="AS4">
-        <v>6.7</v>
-      </c>
-      <c r="AT4">
-        <v>6.7</v>
-      </c>
-      <c r="AU4">
-        <v>6.7</v>
-      </c>
-      <c r="AV4">
-        <v>6.7</v>
-      </c>
-      <c r="AW4">
-        <v>6.7</v>
-      </c>
-      <c r="AX4">
-        <v>6.7</v>
-      </c>
-      <c r="AY4">
-        <v>6.7</v>
-      </c>
-      <c r="AZ4">
-        <v>6.7</v>
-      </c>
-      <c r="BA4">
-        <v>6.7</v>
-      </c>
       <c r="BB4">
+        <v>14</v>
+      </c>
+      <c r="BC4">
+        <v>2</v>
+      </c>
+      <c r="BD4">
         <v>50</v>
       </c>
-      <c r="BC4">
+      <c r="BE4">
         <v>30</v>
       </c>
-      <c r="BD4">
+      <c r="BF4">
         <v>0.5</v>
       </c>
-      <c r="BE4">
+      <c r="BG4">
         <v>0.5</v>
       </c>
-      <c r="BF4">
+      <c r="BH4">
         <v>0.2</v>
       </c>
-      <c r="BG4" t="s">
+      <c r="BI4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>100</v>
+      <c r="B5">
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="D5">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="E5">
-        <v>150</v>
+        <v>1.68</v>
       </c>
       <c r="F5">
+        <v>1.52</v>
+      </c>
+      <c r="G5">
         <v>1.68</v>
       </c>
-      <c r="G5">
-        <v>1.52</v>
-      </c>
       <c r="H5">
-        <v>1.68</v>
+        <v>2.9</v>
       </c>
       <c r="I5">
-        <v>2.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="J5">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="K5">
         <v>5</v>
       </c>
       <c r="L5">
-        <v>5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="M5">
-        <v>4.5999999999999996</v>
+        <v>3.44</v>
       </c>
       <c r="N5">
-        <v>3.44</v>
+        <v>3.04</v>
       </c>
       <c r="O5">
-        <v>3.04</v>
+        <v>2.16</v>
       </c>
       <c r="P5">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="Q5">
+        <v>0.18</v>
+      </c>
+      <c r="R5">
+        <v>0.18</v>
+      </c>
+      <c r="S5">
+        <v>0.18</v>
+      </c>
+      <c r="T5">
+        <v>0.18</v>
+      </c>
+      <c r="U5">
+        <v>0.18</v>
+      </c>
+      <c r="V5">
+        <v>0.18</v>
+      </c>
+      <c r="W5">
+        <v>0.18</v>
+      </c>
+      <c r="X5">
+        <v>0.18</v>
+      </c>
+      <c r="Y5">
+        <v>0.18</v>
+      </c>
+      <c r="Z5">
+        <v>0.18</v>
+      </c>
+      <c r="AA5">
+        <v>0.18</v>
+      </c>
+      <c r="AB5">
+        <v>0.18</v>
+      </c>
+      <c r="AC5">
+        <v>1.23</v>
+      </c>
+      <c r="AD5">
+        <v>1.23</v>
+      </c>
+      <c r="AE5">
+        <v>1.23</v>
+      </c>
+      <c r="AF5">
+        <v>1.23</v>
+      </c>
+      <c r="AG5">
+        <v>1.23</v>
+      </c>
+      <c r="AH5">
+        <v>1.23</v>
+      </c>
+      <c r="AI5">
+        <v>1.23</v>
+      </c>
+      <c r="AJ5">
+        <v>1.23</v>
+      </c>
+      <c r="AK5">
+        <v>1.23</v>
+      </c>
+      <c r="AL5">
+        <v>1.23</v>
+      </c>
+      <c r="AM5">
+        <v>1.23</v>
+      </c>
+      <c r="AN5">
+        <v>1.23</v>
+      </c>
+      <c r="AO5">
+        <v>6.7</v>
+      </c>
+      <c r="AP5">
+        <v>6.7</v>
+      </c>
+      <c r="AQ5">
+        <v>6.7</v>
+      </c>
+      <c r="AR5">
+        <v>6.7</v>
+      </c>
+      <c r="AS5">
+        <v>6.7</v>
+      </c>
+      <c r="AT5">
+        <v>6.7</v>
+      </c>
+      <c r="AU5">
+        <v>6.7</v>
+      </c>
+      <c r="AV5">
+        <v>6.7</v>
+      </c>
+      <c r="AW5">
+        <v>6.7</v>
+      </c>
+      <c r="AX5">
+        <v>6.7</v>
+      </c>
+      <c r="AY5">
+        <v>6.7</v>
+      </c>
+      <c r="AZ5">
+        <v>6.7</v>
+      </c>
+      <c r="BA5">
         <v>2</v>
       </c>
-      <c r="R5">
-        <v>0.18</v>
-      </c>
-      <c r="S5">
-        <v>0.18</v>
-      </c>
-      <c r="T5">
-        <v>0.18</v>
-      </c>
-      <c r="U5">
-        <v>0.18</v>
-      </c>
-      <c r="V5">
-        <v>0.18</v>
-      </c>
-      <c r="W5">
-        <v>0.18</v>
-      </c>
-      <c r="X5">
-        <v>0.18</v>
-      </c>
-      <c r="Y5">
-        <v>0.18</v>
-      </c>
-      <c r="Z5">
-        <v>0.18</v>
-      </c>
-      <c r="AA5">
-        <v>0.18</v>
-      </c>
-      <c r="AB5">
-        <v>0.18</v>
-      </c>
-      <c r="AC5">
-        <v>0.18</v>
-      </c>
-      <c r="AD5">
-        <v>1.23</v>
-      </c>
-      <c r="AE5">
-        <v>1.23</v>
-      </c>
-      <c r="AF5">
-        <v>1.23</v>
-      </c>
-      <c r="AG5">
-        <v>1.23</v>
-      </c>
-      <c r="AH5">
-        <v>1.23</v>
-      </c>
-      <c r="AI5">
-        <v>1.23</v>
-      </c>
-      <c r="AJ5">
-        <v>1.23</v>
-      </c>
-      <c r="AK5">
-        <v>1.23</v>
-      </c>
-      <c r="AL5">
-        <v>1.23</v>
-      </c>
-      <c r="AM5">
-        <v>1.23</v>
-      </c>
-      <c r="AN5">
-        <v>1.23</v>
-      </c>
-      <c r="AO5">
-        <v>1.23</v>
-      </c>
-      <c r="AP5">
-        <v>6.7</v>
-      </c>
-      <c r="AQ5">
-        <v>6.7</v>
-      </c>
-      <c r="AR5">
-        <v>6.7</v>
-      </c>
-      <c r="AS5">
-        <v>6.7</v>
-      </c>
-      <c r="AT5">
-        <v>6.7</v>
-      </c>
-      <c r="AU5">
-        <v>6.7</v>
-      </c>
-      <c r="AV5">
-        <v>6.7</v>
-      </c>
-      <c r="AW5">
-        <v>6.7</v>
-      </c>
-      <c r="AX5">
-        <v>6.7</v>
-      </c>
-      <c r="AY5">
-        <v>6.7</v>
-      </c>
-      <c r="AZ5">
-        <v>6.7</v>
-      </c>
-      <c r="BA5">
-        <v>6.7</v>
-      </c>
       <c r="BB5">
+        <v>20</v>
+      </c>
+      <c r="BC5">
+        <v>11</v>
+      </c>
+      <c r="BD5">
         <v>50</v>
       </c>
-      <c r="BC5">
+      <c r="BE5">
         <v>30</v>
       </c>
-      <c r="BD5">
+      <c r="BF5">
         <v>0.5</v>
       </c>
-      <c r="BE5">
+      <c r="BG5">
         <v>0.5</v>
       </c>
-      <c r="BF5">
+      <c r="BH5">
         <v>0.2</v>
       </c>
-      <c r="BG5" t="s">
+      <c r="BI5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>101</v>
+      <c r="B6">
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="D6">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="E6">
-        <v>140</v>
+        <v>1.68</v>
       </c>
       <c r="F6">
+        <v>1.52</v>
+      </c>
+      <c r="G6">
         <v>1.68</v>
       </c>
-      <c r="G6">
-        <v>1.52</v>
-      </c>
       <c r="H6">
-        <v>1.68</v>
+        <v>2.9</v>
       </c>
       <c r="I6">
-        <v>2.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="J6">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="K6">
         <v>5</v>
       </c>
       <c r="L6">
-        <v>5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="M6">
-        <v>4.5999999999999996</v>
+        <v>3.44</v>
       </c>
       <c r="N6">
-        <v>3.44</v>
+        <v>3.04</v>
       </c>
       <c r="O6">
-        <v>3.04</v>
+        <v>2.16</v>
       </c>
       <c r="P6">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="Q6">
+        <v>0.18</v>
+      </c>
+      <c r="R6">
+        <v>0.18</v>
+      </c>
+      <c r="S6">
+        <v>0.18</v>
+      </c>
+      <c r="T6">
+        <v>0.18</v>
+      </c>
+      <c r="U6">
+        <v>0.18</v>
+      </c>
+      <c r="V6">
+        <v>0.18</v>
+      </c>
+      <c r="W6">
+        <v>0.18</v>
+      </c>
+      <c r="X6">
+        <v>0.18</v>
+      </c>
+      <c r="Y6">
+        <v>0.18</v>
+      </c>
+      <c r="Z6">
+        <v>0.18</v>
+      </c>
+      <c r="AA6">
+        <v>0.18</v>
+      </c>
+      <c r="AB6">
+        <v>0.18</v>
+      </c>
+      <c r="AC6">
+        <v>1.23</v>
+      </c>
+      <c r="AD6">
+        <v>1.23</v>
+      </c>
+      <c r="AE6">
+        <v>1.23</v>
+      </c>
+      <c r="AF6">
+        <v>1.23</v>
+      </c>
+      <c r="AG6">
+        <v>1.23</v>
+      </c>
+      <c r="AH6">
+        <v>1.23</v>
+      </c>
+      <c r="AI6">
+        <v>1.23</v>
+      </c>
+      <c r="AJ6">
+        <v>1.23</v>
+      </c>
+      <c r="AK6">
+        <v>1.23</v>
+      </c>
+      <c r="AL6">
+        <v>1.23</v>
+      </c>
+      <c r="AM6">
+        <v>1.23</v>
+      </c>
+      <c r="AN6">
+        <v>1.23</v>
+      </c>
+      <c r="AO6">
+        <v>6.7</v>
+      </c>
+      <c r="AP6">
+        <v>6.7</v>
+      </c>
+      <c r="AQ6">
+        <v>6.7</v>
+      </c>
+      <c r="AR6">
+        <v>6.7</v>
+      </c>
+      <c r="AS6">
+        <v>6.7</v>
+      </c>
+      <c r="AT6">
+        <v>6.7</v>
+      </c>
+      <c r="AU6">
+        <v>6.7</v>
+      </c>
+      <c r="AV6">
+        <v>6.7</v>
+      </c>
+      <c r="AW6">
+        <v>6.7</v>
+      </c>
+      <c r="AX6">
+        <v>6.7</v>
+      </c>
+      <c r="AY6">
+        <v>6.7</v>
+      </c>
+      <c r="AZ6">
+        <v>6.7</v>
+      </c>
+      <c r="BA6">
         <v>2</v>
       </c>
-      <c r="R6">
-        <v>0.18</v>
-      </c>
-      <c r="S6">
-        <v>0.18</v>
-      </c>
-      <c r="T6">
-        <v>0.18</v>
-      </c>
-      <c r="U6">
-        <v>0.18</v>
-      </c>
-      <c r="V6">
-        <v>0.18</v>
-      </c>
-      <c r="W6">
-        <v>0.18</v>
-      </c>
-      <c r="X6">
-        <v>0.18</v>
-      </c>
-      <c r="Y6">
-        <v>0.18</v>
-      </c>
-      <c r="Z6">
-        <v>0.18</v>
-      </c>
-      <c r="AA6">
-        <v>0.18</v>
-      </c>
-      <c r="AB6">
-        <v>0.18</v>
-      </c>
-      <c r="AC6">
-        <v>0.18</v>
-      </c>
-      <c r="AD6">
-        <v>1.23</v>
-      </c>
-      <c r="AE6">
-        <v>1.23</v>
-      </c>
-      <c r="AF6">
-        <v>1.23</v>
-      </c>
-      <c r="AG6">
-        <v>1.23</v>
-      </c>
-      <c r="AH6">
-        <v>1.23</v>
-      </c>
-      <c r="AI6">
-        <v>1.23</v>
-      </c>
-      <c r="AJ6">
-        <v>1.23</v>
-      </c>
-      <c r="AK6">
-        <v>1.23</v>
-      </c>
-      <c r="AL6">
-        <v>1.23</v>
-      </c>
-      <c r="AM6">
-        <v>1.23</v>
-      </c>
-      <c r="AN6">
-        <v>1.23</v>
-      </c>
-      <c r="AO6">
-        <v>1.23</v>
-      </c>
-      <c r="AP6">
-        <v>6.7</v>
-      </c>
-      <c r="AQ6">
-        <v>6.7</v>
-      </c>
-      <c r="AR6">
-        <v>6.7</v>
-      </c>
-      <c r="AS6">
-        <v>6.7</v>
-      </c>
-      <c r="AT6">
-        <v>6.7</v>
-      </c>
-      <c r="AU6">
-        <v>6.7</v>
-      </c>
-      <c r="AV6">
-        <v>6.7</v>
-      </c>
-      <c r="AW6">
-        <v>6.7</v>
-      </c>
-      <c r="AX6">
-        <v>6.7</v>
-      </c>
-      <c r="AY6">
-        <v>6.7</v>
-      </c>
-      <c r="AZ6">
-        <v>6.7</v>
-      </c>
-      <c r="BA6">
-        <v>6.7</v>
-      </c>
       <c r="BB6">
+        <v>8</v>
+      </c>
+      <c r="BC6">
+        <v>4</v>
+      </c>
+      <c r="BD6">
         <v>50</v>
       </c>
-      <c r="BC6">
+      <c r="BE6">
         <v>50</v>
       </c>
-      <c r="BD6">
+      <c r="BF6">
         <v>0.5</v>
       </c>
-      <c r="BE6">
+      <c r="BG6">
         <v>0.5</v>
       </c>
-      <c r="BF6">
+      <c r="BH6">
         <v>0.2</v>
       </c>
-      <c r="BG6" t="s">
+      <c r="BI6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>102</v>
+      <c r="B7">
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="D7">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="E7">
-        <v>125</v>
+        <v>1.68</v>
       </c>
       <c r="F7">
+        <v>1.52</v>
+      </c>
+      <c r="G7">
         <v>1.68</v>
       </c>
-      <c r="G7">
-        <v>1.52</v>
-      </c>
       <c r="H7">
-        <v>1.68</v>
+        <v>2.9</v>
       </c>
       <c r="I7">
-        <v>2.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="J7">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="K7">
         <v>5</v>
       </c>
       <c r="L7">
-        <v>5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="M7">
-        <v>4.5999999999999996</v>
+        <v>3.44</v>
       </c>
       <c r="N7">
-        <v>3.44</v>
+        <v>3.04</v>
       </c>
       <c r="O7">
-        <v>3.04</v>
+        <v>2.16</v>
       </c>
       <c r="P7">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>0.18</v>
       </c>
       <c r="R7">
         <v>0.18</v>
@@ -2415,7 +2462,7 @@
         <v>0.18</v>
       </c>
       <c r="AC7">
-        <v>0.18</v>
+        <v>1.23</v>
       </c>
       <c r="AD7">
         <v>1.23</v>
@@ -2451,7 +2498,7 @@
         <v>1.23</v>
       </c>
       <c r="AO7">
-        <v>1.23</v>
+        <v>6.7</v>
       </c>
       <c r="AP7">
         <v>6.7</v>
@@ -2487,257 +2534,269 @@
         <v>6.7</v>
       </c>
       <c r="BA7">
-        <v>6.7</v>
+        <v>2.1</v>
       </c>
       <c r="BB7">
+        <v>14</v>
+      </c>
+      <c r="BC7">
+        <v>6</v>
+      </c>
+      <c r="BD7">
         <v>50</v>
       </c>
-      <c r="BC7">
+      <c r="BE7">
         <v>50</v>
       </c>
-      <c r="BD7">
+      <c r="BF7">
         <v>0.5</v>
       </c>
-      <c r="BE7">
+      <c r="BG7">
         <v>0.5</v>
       </c>
-      <c r="BF7">
+      <c r="BH7">
         <v>0.2</v>
       </c>
-      <c r="BG7" t="s">
+      <c r="BI7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>40</v>
+      </c>
+      <c r="D8">
+        <v>125</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>2.25</v>
+      </c>
+      <c r="G8">
+        <v>2.95</v>
+      </c>
+      <c r="H8">
+        <v>3.85</v>
+      </c>
+      <c r="I8">
+        <v>3.75</v>
+      </c>
+      <c r="J8">
+        <v>3.5</v>
+      </c>
+      <c r="K8">
+        <v>3.55</v>
+      </c>
+      <c r="L8">
+        <v>3.2</v>
+      </c>
+      <c r="M8">
+        <v>3.3</v>
+      </c>
+      <c r="N8">
+        <v>2.85</v>
+      </c>
+      <c r="O8">
+        <v>2.6</v>
+      </c>
+      <c r="P8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Q8">
+        <v>0.19</v>
+      </c>
+      <c r="R8">
+        <v>0.19</v>
+      </c>
+      <c r="S8">
+        <v>0.19</v>
+      </c>
+      <c r="T8">
+        <v>0.19</v>
+      </c>
+      <c r="U8">
+        <v>0.19</v>
+      </c>
+      <c r="V8">
+        <v>0.19</v>
+      </c>
+      <c r="W8">
+        <v>0.19</v>
+      </c>
+      <c r="X8">
+        <v>0.19</v>
+      </c>
+      <c r="Y8">
+        <v>0.19</v>
+      </c>
+      <c r="Z8">
+        <v>0.19</v>
+      </c>
+      <c r="AA8">
+        <v>0.19</v>
+      </c>
+      <c r="AB8">
+        <v>0.19</v>
+      </c>
+      <c r="AC8">
+        <v>0.495</v>
+      </c>
+      <c r="AD8">
+        <v>0.495</v>
+      </c>
+      <c r="AE8">
+        <v>0.495</v>
+      </c>
+      <c r="AF8">
+        <v>0.495</v>
+      </c>
+      <c r="AG8">
+        <v>0.495</v>
+      </c>
+      <c r="AH8">
+        <v>0.495</v>
+      </c>
+      <c r="AI8">
+        <v>0.495</v>
+      </c>
+      <c r="AJ8">
+        <v>0.495</v>
+      </c>
+      <c r="AK8">
+        <v>0.495</v>
+      </c>
+      <c r="AL8">
+        <v>0.495</v>
+      </c>
+      <c r="AM8">
+        <v>0.495</v>
+      </c>
+      <c r="AN8">
+        <v>0.495</v>
+      </c>
+      <c r="AO8">
+        <v>1</v>
+      </c>
+      <c r="AP8">
+        <v>1</v>
+      </c>
+      <c r="AQ8">
+        <v>1</v>
+      </c>
+      <c r="AR8">
+        <v>1</v>
+      </c>
+      <c r="AS8">
+        <v>1</v>
+      </c>
+      <c r="AT8">
+        <v>1</v>
+      </c>
+      <c r="AU8">
+        <v>1</v>
+      </c>
+      <c r="AV8">
+        <v>1</v>
+      </c>
+      <c r="AW8">
+        <v>1</v>
+      </c>
+      <c r="AX8">
+        <v>1</v>
+      </c>
+      <c r="AY8">
+        <v>1</v>
+      </c>
+      <c r="AZ8">
+        <v>1</v>
+      </c>
+      <c r="BA8">
+        <v>2.6</v>
+      </c>
+      <c r="BB8">
+        <v>8</v>
+      </c>
+      <c r="BC8">
+        <v>4</v>
+      </c>
+      <c r="BD8">
+        <v>5</v>
+      </c>
+      <c r="BE8">
+        <v>75</v>
+      </c>
+      <c r="BF8">
+        <v>0.5</v>
+      </c>
+      <c r="BG8">
+        <v>0.5</v>
+      </c>
+      <c r="BH8">
+        <v>0.2</v>
+      </c>
+      <c r="BI8" t="s">
         <v>103</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>40</v>
-      </c>
-      <c r="E8">
-        <v>125</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>2.25</v>
-      </c>
-      <c r="H8">
-        <v>2.95</v>
-      </c>
-      <c r="I8">
-        <v>3.85</v>
-      </c>
-      <c r="J8">
-        <v>3.75</v>
-      </c>
-      <c r="K8">
-        <v>3.5</v>
-      </c>
-      <c r="L8">
-        <v>3.55</v>
-      </c>
-      <c r="M8">
-        <v>3.2</v>
-      </c>
-      <c r="N8">
-        <v>3.3</v>
-      </c>
-      <c r="O8">
-        <v>2.85</v>
-      </c>
-      <c r="P8">
-        <v>2.6</v>
-      </c>
-      <c r="Q8">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="R8">
-        <v>0.19</v>
-      </c>
-      <c r="S8">
-        <v>0.19</v>
-      </c>
-      <c r="T8">
-        <v>0.19</v>
-      </c>
-      <c r="U8">
-        <v>0.19</v>
-      </c>
-      <c r="V8">
-        <v>0.19</v>
-      </c>
-      <c r="W8">
-        <v>0.19</v>
-      </c>
-      <c r="X8">
-        <v>0.19</v>
-      </c>
-      <c r="Y8">
-        <v>0.19</v>
-      </c>
-      <c r="Z8">
-        <v>0.19</v>
-      </c>
-      <c r="AA8">
-        <v>0.19</v>
-      </c>
-      <c r="AB8">
-        <v>0.19</v>
-      </c>
-      <c r="AC8">
-        <v>0.19</v>
-      </c>
-      <c r="AD8">
-        <v>0.495</v>
-      </c>
-      <c r="AE8">
-        <v>0.495</v>
-      </c>
-      <c r="AF8">
-        <v>0.495</v>
-      </c>
-      <c r="AG8">
-        <v>0.495</v>
-      </c>
-      <c r="AH8">
-        <v>0.495</v>
-      </c>
-      <c r="AI8">
-        <v>0.495</v>
-      </c>
-      <c r="AJ8">
-        <v>0.495</v>
-      </c>
-      <c r="AK8">
-        <v>0.495</v>
-      </c>
-      <c r="AL8">
-        <v>0.495</v>
-      </c>
-      <c r="AM8">
-        <v>0.495</v>
-      </c>
-      <c r="AN8">
-        <v>0.495</v>
-      </c>
-      <c r="AO8">
-        <v>0.495</v>
-      </c>
-      <c r="AP8">
-        <v>1</v>
-      </c>
-      <c r="AQ8">
-        <v>1</v>
-      </c>
-      <c r="AR8">
-        <v>1</v>
-      </c>
-      <c r="AS8">
-        <v>1</v>
-      </c>
-      <c r="AT8">
-        <v>1</v>
-      </c>
-      <c r="AU8">
-        <v>1</v>
-      </c>
-      <c r="AV8">
-        <v>1</v>
-      </c>
-      <c r="AW8">
-        <v>1</v>
-      </c>
-      <c r="AX8">
-        <v>1</v>
-      </c>
-      <c r="AY8">
-        <v>1</v>
-      </c>
-      <c r="AZ8">
-        <v>1</v>
-      </c>
-      <c r="BA8">
-        <v>1</v>
-      </c>
-      <c r="BB8">
-        <v>5</v>
-      </c>
-      <c r="BC8">
-        <v>75</v>
-      </c>
-      <c r="BD8">
-        <v>0.5</v>
-      </c>
-      <c r="BE8">
-        <v>0.5</v>
-      </c>
-      <c r="BF8">
-        <v>0.2</v>
-      </c>
-      <c r="BG8" t="s">
-        <v>103</v>
-      </c>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>104</v>
+      <c r="B9">
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D9">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="E9">
-        <v>135</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="G9">
-        <v>2.25</v>
+        <v>2.95</v>
       </c>
       <c r="H9">
-        <v>2.95</v>
+        <v>3.85</v>
       </c>
       <c r="I9">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="J9">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="K9">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L9">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="M9">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N9">
-        <v>3.3</v>
+        <v>2.85</v>
       </c>
       <c r="O9">
-        <v>2.85</v>
+        <v>2.6</v>
       </c>
       <c r="P9">
-        <v>2.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="Q9">
-        <v>2.2000000000000002</v>
+        <v>0.19</v>
       </c>
       <c r="R9">
         <v>0.19</v>
@@ -2773,7 +2832,7 @@
         <v>0.19</v>
       </c>
       <c r="AC9">
-        <v>0.19</v>
+        <v>0.495</v>
       </c>
       <c r="AD9">
         <v>0.495</v>
@@ -2809,7 +2868,7 @@
         <v>0.495</v>
       </c>
       <c r="AO9">
-        <v>0.495</v>
+        <v>1</v>
       </c>
       <c r="AP9">
         <v>1</v>
@@ -2845,257 +2904,269 @@
         <v>1</v>
       </c>
       <c r="BA9">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="BB9">
         <v>5</v>
       </c>
       <c r="BC9">
+        <v>2</v>
+      </c>
+      <c r="BD9">
+        <v>5</v>
+      </c>
+      <c r="BE9">
         <v>75</v>
       </c>
-      <c r="BD9">
+      <c r="BF9">
         <v>0.5</v>
       </c>
-      <c r="BE9">
+      <c r="BG9">
         <v>0.5</v>
       </c>
-      <c r="BF9">
+      <c r="BH9">
         <v>0.2</v>
       </c>
-      <c r="BG9" t="s">
+      <c r="BI9" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>50</v>
+      </c>
+      <c r="D10">
+        <v>135</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>2.25</v>
+      </c>
+      <c r="G10">
+        <v>2.95</v>
+      </c>
+      <c r="H10">
+        <v>3.85</v>
+      </c>
+      <c r="I10">
+        <v>3.75</v>
+      </c>
+      <c r="J10">
+        <v>3.5</v>
+      </c>
+      <c r="K10">
+        <v>3.55</v>
+      </c>
+      <c r="L10">
+        <v>3.2</v>
+      </c>
+      <c r="M10">
+        <v>3.3</v>
+      </c>
+      <c r="N10">
+        <v>2.85</v>
+      </c>
+      <c r="O10">
+        <v>2.6</v>
+      </c>
+      <c r="P10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Q10">
+        <v>0.19</v>
+      </c>
+      <c r="R10">
+        <v>0.19</v>
+      </c>
+      <c r="S10">
+        <v>0.19</v>
+      </c>
+      <c r="T10">
+        <v>0.19</v>
+      </c>
+      <c r="U10">
+        <v>0.19</v>
+      </c>
+      <c r="V10">
+        <v>0.19</v>
+      </c>
+      <c r="W10">
+        <v>0.19</v>
+      </c>
+      <c r="X10">
+        <v>0.19</v>
+      </c>
+      <c r="Y10">
+        <v>0.19</v>
+      </c>
+      <c r="Z10">
+        <v>0.19</v>
+      </c>
+      <c r="AA10">
+        <v>0.19</v>
+      </c>
+      <c r="AB10">
+        <v>0.19</v>
+      </c>
+      <c r="AC10">
+        <v>0.495</v>
+      </c>
+      <c r="AD10">
+        <v>0.495</v>
+      </c>
+      <c r="AE10">
+        <v>0.495</v>
+      </c>
+      <c r="AF10">
+        <v>0.495</v>
+      </c>
+      <c r="AG10">
+        <v>0.495</v>
+      </c>
+      <c r="AH10">
+        <v>0.495</v>
+      </c>
+      <c r="AI10">
+        <v>0.495</v>
+      </c>
+      <c r="AJ10">
+        <v>0.495</v>
+      </c>
+      <c r="AK10">
+        <v>0.495</v>
+      </c>
+      <c r="AL10">
+        <v>0.495</v>
+      </c>
+      <c r="AM10">
+        <v>0.495</v>
+      </c>
+      <c r="AN10">
+        <v>0.495</v>
+      </c>
+      <c r="AO10">
+        <v>1</v>
+      </c>
+      <c r="AP10">
+        <v>1</v>
+      </c>
+      <c r="AQ10">
+        <v>1</v>
+      </c>
+      <c r="AR10">
+        <v>1</v>
+      </c>
+      <c r="AS10">
+        <v>1</v>
+      </c>
+      <c r="AT10">
+        <v>1</v>
+      </c>
+      <c r="AU10">
+        <v>1</v>
+      </c>
+      <c r="AV10">
+        <v>1</v>
+      </c>
+      <c r="AW10">
+        <v>1</v>
+      </c>
+      <c r="AX10">
+        <v>1</v>
+      </c>
+      <c r="AY10">
+        <v>1</v>
+      </c>
+      <c r="AZ10">
+        <v>1</v>
+      </c>
+      <c r="BA10">
+        <v>1.9</v>
+      </c>
+      <c r="BB10">
+        <v>4</v>
+      </c>
+      <c r="BC10">
+        <v>0</v>
+      </c>
+      <c r="BD10">
+        <v>5</v>
+      </c>
+      <c r="BE10">
+        <v>75</v>
+      </c>
+      <c r="BF10">
+        <v>0.5</v>
+      </c>
+      <c r="BG10">
+        <v>0.5</v>
+      </c>
+      <c r="BH10">
+        <v>0.2</v>
+      </c>
+      <c r="BI10" t="s">
         <v>105</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>50</v>
-      </c>
-      <c r="E10">
-        <v>135</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10">
-        <v>2.25</v>
-      </c>
-      <c r="H10">
-        <v>2.95</v>
-      </c>
-      <c r="I10">
-        <v>3.85</v>
-      </c>
-      <c r="J10">
-        <v>3.75</v>
-      </c>
-      <c r="K10">
-        <v>3.5</v>
-      </c>
-      <c r="L10">
-        <v>3.55</v>
-      </c>
-      <c r="M10">
-        <v>3.2</v>
-      </c>
-      <c r="N10">
-        <v>3.3</v>
-      </c>
-      <c r="O10">
-        <v>2.85</v>
-      </c>
-      <c r="P10">
-        <v>2.6</v>
-      </c>
-      <c r="Q10">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="R10">
-        <v>0.19</v>
-      </c>
-      <c r="S10">
-        <v>0.19</v>
-      </c>
-      <c r="T10">
-        <v>0.19</v>
-      </c>
-      <c r="U10">
-        <v>0.19</v>
-      </c>
-      <c r="V10">
-        <v>0.19</v>
-      </c>
-      <c r="W10">
-        <v>0.19</v>
-      </c>
-      <c r="X10">
-        <v>0.19</v>
-      </c>
-      <c r="Y10">
-        <v>0.19</v>
-      </c>
-      <c r="Z10">
-        <v>0.19</v>
-      </c>
-      <c r="AA10">
-        <v>0.19</v>
-      </c>
-      <c r="AB10">
-        <v>0.19</v>
-      </c>
-      <c r="AC10">
-        <v>0.19</v>
-      </c>
-      <c r="AD10">
-        <v>0.495</v>
-      </c>
-      <c r="AE10">
-        <v>0.495</v>
-      </c>
-      <c r="AF10">
-        <v>0.495</v>
-      </c>
-      <c r="AG10">
-        <v>0.495</v>
-      </c>
-      <c r="AH10">
-        <v>0.495</v>
-      </c>
-      <c r="AI10">
-        <v>0.495</v>
-      </c>
-      <c r="AJ10">
-        <v>0.495</v>
-      </c>
-      <c r="AK10">
-        <v>0.495</v>
-      </c>
-      <c r="AL10">
-        <v>0.495</v>
-      </c>
-      <c r="AM10">
-        <v>0.495</v>
-      </c>
-      <c r="AN10">
-        <v>0.495</v>
-      </c>
-      <c r="AO10">
-        <v>0.495</v>
-      </c>
-      <c r="AP10">
-        <v>1</v>
-      </c>
-      <c r="AQ10">
-        <v>1</v>
-      </c>
-      <c r="AR10">
-        <v>1</v>
-      </c>
-      <c r="AS10">
-        <v>1</v>
-      </c>
-      <c r="AT10">
-        <v>1</v>
-      </c>
-      <c r="AU10">
-        <v>1</v>
-      </c>
-      <c r="AV10">
-        <v>1</v>
-      </c>
-      <c r="AW10">
-        <v>1</v>
-      </c>
-      <c r="AX10">
-        <v>1</v>
-      </c>
-      <c r="AY10">
-        <v>1</v>
-      </c>
-      <c r="AZ10">
-        <v>1</v>
-      </c>
-      <c r="BA10">
-        <v>1</v>
-      </c>
-      <c r="BB10">
-        <v>5</v>
-      </c>
-      <c r="BC10">
-        <v>75</v>
-      </c>
-      <c r="BD10">
-        <v>0.5</v>
-      </c>
-      <c r="BE10">
-        <v>0.5</v>
-      </c>
-      <c r="BF10">
-        <v>0.2</v>
-      </c>
-      <c r="BG10" t="s">
-        <v>105</v>
-      </c>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>106</v>
+      <c r="B11">
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D11">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E11">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="G11">
-        <v>2.25</v>
+        <v>2.95</v>
       </c>
       <c r="H11">
-        <v>2.95</v>
+        <v>3.85</v>
       </c>
       <c r="I11">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="J11">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="K11">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L11">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="M11">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N11">
-        <v>3.3</v>
+        <v>2.85</v>
       </c>
       <c r="O11">
-        <v>2.85</v>
+        <v>2.6</v>
       </c>
       <c r="P11">
-        <v>2.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="Q11">
-        <v>2.2000000000000002</v>
+        <v>0.2</v>
       </c>
       <c r="R11">
         <v>0.2</v>
@@ -3131,7 +3202,7 @@
         <v>0.2</v>
       </c>
       <c r="AC11">
-        <v>0.2</v>
+        <v>7.3800000000000004E-2</v>
       </c>
       <c r="AD11">
         <v>7.3800000000000004E-2</v>
@@ -3167,7 +3238,7 @@
         <v>7.3800000000000004E-2</v>
       </c>
       <c r="AO11">
-        <v>7.3800000000000004E-2</v>
+        <v>0.40200000000000002</v>
       </c>
       <c r="AP11">
         <v>0.40200000000000002</v>
@@ -3203,42 +3274,48 @@
         <v>0.40200000000000002</v>
       </c>
       <c r="BA11">
-        <v>0.40200000000000002</v>
+        <v>3.7</v>
       </c>
       <c r="BB11">
+        <v>0.6</v>
+      </c>
+      <c r="BC11">
+        <v>0</v>
+      </c>
+      <c r="BD11">
         <v>3</v>
       </c>
-      <c r="BC11">
+      <c r="BE11">
         <v>100</v>
       </c>
-      <c r="BD11">
+      <c r="BF11">
         <v>0.5</v>
       </c>
-      <c r="BE11">
+      <c r="BG11">
         <v>0.5</v>
       </c>
-      <c r="BF11">
+      <c r="BH11">
         <v>0.2</v>
       </c>
-      <c r="BG11" t="s">
+      <c r="BI11" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>107</v>
+      <c r="B12">
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D12">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="E12">
-        <v>60</v>
+        <v>0.5</v>
       </c>
       <c r="F12">
         <v>0.5</v>
@@ -3250,22 +3327,22 @@
         <v>0.5</v>
       </c>
       <c r="I12">
+        <v>1.5</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <v>4.5</v>
+      </c>
+      <c r="L12">
+        <v>5</v>
+      </c>
+      <c r="M12">
+        <v>2.5</v>
+      </c>
+      <c r="N12">
         <v>0.5</v>
-      </c>
-      <c r="J12">
-        <v>1.5</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>4.5</v>
-      </c>
-      <c r="M12">
-        <v>5</v>
-      </c>
-      <c r="N12">
-        <v>2.5</v>
       </c>
       <c r="O12">
         <v>0.5</v>
@@ -3274,7 +3351,7 @@
         <v>0.5</v>
       </c>
       <c r="Q12">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="R12">
         <v>0.1</v>
@@ -3286,7 +3363,7 @@
         <v>0.1</v>
       </c>
       <c r="U12">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="V12">
         <v>0.2</v>
@@ -3301,7 +3378,7 @@
         <v>0.2</v>
       </c>
       <c r="Z12">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AA12">
         <v>0.1</v>
@@ -3310,7 +3387,7 @@
         <v>0.1</v>
       </c>
       <c r="AC12">
-        <v>0.1</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AD12">
         <v>6.0000000000000001E-3</v>
@@ -3322,31 +3399,31 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="AG12">
-        <v>6.0000000000000001E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AH12">
-        <v>1.2E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="AI12">
-        <v>6.2E-2</v>
+        <v>0.123</v>
       </c>
       <c r="AJ12">
-        <v>0.123</v>
+        <v>0.185</v>
       </c>
       <c r="AK12">
-        <v>0.185</v>
+        <v>0.215</v>
       </c>
       <c r="AL12">
         <v>0.215</v>
       </c>
       <c r="AM12">
-        <v>0.215</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AN12">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="AO12">
-        <v>6.0000000000000001E-3</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="AP12">
         <v>3.4000000000000002E-2</v>
@@ -3358,48 +3435,54 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="AS12">
-        <v>3.4000000000000002E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="AT12">
-        <v>6.7000000000000004E-2</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="AU12">
-        <v>0.33500000000000002</v>
+        <v>0.67</v>
       </c>
       <c r="AV12">
-        <v>0.67</v>
+        <v>1.0049999999999999</v>
       </c>
       <c r="AW12">
-        <v>1.0049999999999999</v>
+        <v>1.173</v>
       </c>
       <c r="AX12">
         <v>1.173</v>
       </c>
       <c r="AY12">
-        <v>1.173</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="AZ12">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="BA12">
-        <v>3.4000000000000002E-2</v>
+        <v>0.7</v>
       </c>
       <c r="BB12">
+        <v>0.6</v>
+      </c>
+      <c r="BC12">
+        <v>0</v>
+      </c>
+      <c r="BD12">
         <v>2</v>
       </c>
-      <c r="BC12">
+      <c r="BE12">
         <v>100</v>
       </c>
-      <c r="BD12">
+      <c r="BF12">
         <v>0.5</v>
       </c>
-      <c r="BE12">
+      <c r="BG12">
         <v>0.5</v>
       </c>
-      <c r="BF12">
+      <c r="BH12">
         <v>0.2</v>
       </c>
-      <c r="BG12" t="s">
+      <c r="BI12" t="s">
         <v>107</v>
       </c>
     </row>

--- a/example_data/VegeLib.xlsx
+++ b/example_data/VegeLib.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xHM\example_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978C0506-F646-43F1-9DDF-1C1B842F143E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E66B8F-4DB1-4DCF-A9A5-5CAE1B219538}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7350" activeTab="1" xr2:uid="{67301EE8-8712-4249-B216-439A239299BA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7350" xr2:uid="{67301EE8-8712-4249-B216-439A239299BA}"/>
   </bookViews>
   <sheets>
     <sheet name="para description" sheetId="1" r:id="rId1"/>
@@ -1005,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DBDB6FC-2329-4307-8267-868252A67AFF}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1255,8 +1255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6AD5702-3BF4-4060-91A5-E265261B34C6}">
   <dimension ref="A1:BI12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
-      <selection activeCell="BI6" sqref="BB6:BI6"/>
+    <sheetView topLeftCell="AQ1" workbookViewId="0">
+      <selection activeCell="BE1" sqref="BE1:BE1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
